--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1215.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1215.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8481051642829099</v>
+        <v>1.181499361991882</v>
       </c>
       <c r="B1">
-        <v>2.95585047544384</v>
+        <v>2.257375717163086</v>
       </c>
       <c r="C1">
-        <v>3.668657560422044</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.190159227435283</v>
+        <v>2.349781036376953</v>
       </c>
       <c r="E1">
-        <v>1.314728485045253</v>
+        <v>1.22279167175293</v>
       </c>
     </row>
   </sheetData>
